--- a/my_project/corr_search_res/correlation_sectors_approach_result.xlsx
+++ b/my_project/corr_search_res/correlation_sectors_approach_result.xlsx
@@ -467,10 +467,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.1312209832886926</v>
+        <v>0.1380735117988072</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2124642782334183</v>
+        <v>0.189336789175735</v>
       </c>
     </row>
     <row r="3">
@@ -485,10 +485,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-0.004288950748924986</v>
+        <v>0.1346415758165991</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9676340120402196</v>
+        <v>0.200680664247515</v>
       </c>
     </row>
     <row r="4">
@@ -503,10 +503,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-0.08586667264021691</v>
+        <v>0.04629597091307004</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4157320541586983</v>
+        <v>0.6612275134895177</v>
       </c>
     </row>
     <row r="5">
@@ -521,10 +521,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.01500660532184465</v>
+        <v>0.1803593964616055</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8870971795735544</v>
+        <v>0.08535381217266605</v>
       </c>
     </row>
     <row r="6">
@@ -539,10 +539,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.2113306804966132</v>
+        <v>0.1275116976770918</v>
       </c>
       <c r="D6" t="n">
-        <v>0.04315585432063813</v>
+        <v>0.2283991660541867</v>
       </c>
     </row>
     <row r="7">
@@ -557,10 +557,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-0.103417733983015</v>
+        <v>-0.1778420293220559</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3265833501892627</v>
+        <v>0.09169466198272562</v>
       </c>
     </row>
     <row r="8">
@@ -575,10 +575,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-0.06993222383425908</v>
+        <v>0.06879948303560469</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5077105228430635</v>
+        <v>0.5146259231495384</v>
       </c>
     </row>
     <row r="9">
@@ -593,10 +593,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.6218267829755004</v>
+        <v>0.4554130660137468</v>
       </c>
       <c r="D9" t="n">
-        <v>3.707084152301422e-11</v>
+        <v>5.082960642748461e-06</v>
       </c>
     </row>
     <row r="10">
@@ -611,10 +611,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.004878651767432803</v>
+        <v>-0.320666183102976</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9631868312449002</v>
+        <v>0.001830726413273231</v>
       </c>
     </row>
     <row r="11">
@@ -629,10 +629,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.6832417750174075</v>
+        <v>0.5387839372184192</v>
       </c>
       <c r="D11" t="n">
-        <v>6.210816847769381e-14</v>
+        <v>3.020070684012948e-08</v>
       </c>
     </row>
     <row r="12">
@@ -647,10 +647,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-0.1123422729602777</v>
+        <v>0.04512336699790357</v>
       </c>
       <c r="D12" t="n">
-        <v>0.286335168870217</v>
+        <v>0.6710441167508682</v>
       </c>
     </row>
     <row r="13">
@@ -665,10 +665,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.08809559764451856</v>
+        <v>-0.2002122069313494</v>
       </c>
       <c r="D13" t="n">
-        <v>0.4036865487789686</v>
+        <v>0.0570647328831485</v>
       </c>
     </row>
     <row r="14">
@@ -683,10 +683,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-0.02918937655945132</v>
+        <v>-0.353373337670157</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7823902190518498</v>
+        <v>0.0005497190329492098</v>
       </c>
     </row>
     <row r="15">
@@ -701,10 +701,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.7515127055478931</v>
+        <v>0.6267782526274787</v>
       </c>
       <c r="D15" t="n">
-        <v>6.114998428232506e-18</v>
+        <v>2.332215500968583e-11</v>
       </c>
     </row>
     <row r="16">
@@ -719,10 +719,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.9941276831302777</v>
+        <v>0.9836608241155468</v>
       </c>
       <c r="D16" t="n">
-        <v>1.026654654723769e-88</v>
+        <v>8.165814046459598e-69</v>
       </c>
     </row>
     <row r="17">
@@ -737,10 +737,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-0.6888589613470637</v>
+        <v>-0.5649690258760608</v>
       </c>
       <c r="D17" t="n">
-        <v>3.200225352077141e-14</v>
+        <v>5.420012969870346e-09</v>
       </c>
     </row>
     <row r="18">
@@ -755,10 +755,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.4836615454615542</v>
+        <v>0.3648624212277486</v>
       </c>
       <c r="D18" t="n">
-        <v>1.039652818630367e-06</v>
+        <v>0.0003767401393740044</v>
       </c>
     </row>
     <row r="19">
@@ -773,10 +773,10 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.7134579059445112</v>
+        <v>0.5827091103973073</v>
       </c>
       <c r="D19" t="n">
-        <v>1.457424057950987e-15</v>
+        <v>1.102073402945877e-09</v>
       </c>
     </row>
     <row r="20">
@@ -791,10 +791,10 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.705443186602584</v>
+        <v>0.5505092224414716</v>
       </c>
       <c r="D20" t="n">
-        <v>4.128490540031025e-15</v>
+        <v>1.307276354452293e-08</v>
       </c>
     </row>
     <row r="21">
@@ -809,10 +809,10 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-0.7470264445715092</v>
+        <v>-0.6036968385343067</v>
       </c>
       <c r="D21" t="n">
-        <v>1.22594368335865e-17</v>
+        <v>2.384556196254475e-10</v>
       </c>
     </row>
     <row r="22">
@@ -827,10 +827,10 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.5771967559089104</v>
+        <v>0.4473763460813174</v>
       </c>
       <c r="D22" t="n">
-        <v>1.715473783341565e-09</v>
+        <v>8.749363260680295e-06</v>
       </c>
     </row>
     <row r="23">
@@ -845,10 +845,10 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.99358082606461</v>
+        <v>0.9892887999456466</v>
       </c>
       <c r="D23" t="n">
-        <v>5.577411737966305e-87</v>
+        <v>5.155908730501901e-77</v>
       </c>
     </row>
     <row r="24">
@@ -863,10 +863,10 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>-0.6184787398083104</v>
+        <v>-0.4243747729830099</v>
       </c>
       <c r="D24" t="n">
-        <v>5.048093572075786e-11</v>
+        <v>2.761998493444329e-05</v>
       </c>
     </row>
     <row r="25">
@@ -881,10 +881,10 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.4596346102628032</v>
+        <v>0.2757317777168685</v>
       </c>
       <c r="D25" t="n">
-        <v>4.045562331567582e-06</v>
+        <v>0.008158355348982125</v>
       </c>
     </row>
     <row r="26">
@@ -899,10 +899,10 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.6730183758940081</v>
+        <v>0.5231400147403523</v>
       </c>
       <c r="D26" t="n">
-        <v>2.000501520905061e-13</v>
+        <v>8.792810686124908e-08</v>
       </c>
     </row>
     <row r="27">
@@ -917,10 +917,10 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>-0.4053681737693257</v>
+        <v>-0.4243209457586143</v>
       </c>
       <c r="D27" t="n">
-        <v>6.110623398239018e-05</v>
+        <v>2.769171175221538e-05</v>
       </c>
     </row>
     <row r="28">
@@ -935,10 +935,10 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>-0.6775576875777704</v>
+        <v>-0.5060559429376476</v>
       </c>
       <c r="D28" t="n">
-        <v>1.197002654358688e-13</v>
+        <v>3.100961730853606e-07</v>
       </c>
     </row>
     <row r="29">
@@ -953,10 +953,10 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.5677098070223626</v>
+        <v>0.4097066303405117</v>
       </c>
       <c r="D29" t="n">
-        <v>3.605025562951991e-09</v>
+        <v>5.510397502678359e-05</v>
       </c>
     </row>
   </sheetData>

--- a/my_project/corr_search_res/correlation_sectors_approach_result.xlsx
+++ b/my_project/corr_search_res/correlation_sectors_approach_result.xlsx
@@ -463,7 +463,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>store_density_3km</t>
+          <t>shops_density_in_areas</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -481,7 +481,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>population_density_3km</t>
+          <t>pops_density_in_areas</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -499,7 +499,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>population_store_ratio_3km</t>
+          <t>pops_and_shops_ratio_in_areas</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -517,7 +517,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>population_metric_sum_3km</t>
+          <t>pops_metric_sum_in_areas</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -535,7 +535,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>population_metric_avg_3km</t>
+          <t>pops_metric_avg_in_areas</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -553,7 +553,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>population_uniformity_3km</t>
+          <t>pops_uniformity_in_areas</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -571,7 +571,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pop_metric_store_ratio_3km</t>
+          <t>pops_metric_sum_and_shops_ratio_in_areas</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -584,12 +584,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>store_density_3km</t>
+          <t>shops_density_in_areas</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>population_density_3km</t>
+          <t>pops_density_in_areas</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -602,12 +602,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>store_density_3km</t>
+          <t>shops_density_in_areas</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>population_store_ratio_3km</t>
+          <t>pops_and_shops_ratio_in_areas</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -620,12 +620,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>store_density_3km</t>
+          <t>shops_density_in_areas</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>population_metric_sum_3km</t>
+          <t>pops_metric_sum_in_areas</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -638,12 +638,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>store_density_3km</t>
+          <t>shops_density_in_areas</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>population_metric_avg_3km</t>
+          <t>pops_metric_avg_in_areas</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -656,12 +656,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>store_density_3km</t>
+          <t>shops_density_in_areas</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>population_uniformity_3km</t>
+          <t>pops_uniformity_in_areas</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -674,12 +674,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>store_density_3km</t>
+          <t>shops_density_in_areas</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pop_metric_store_ratio_3km</t>
+          <t>pops_metric_sum_and_shops_ratio_in_areas</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -692,12 +692,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>population_density_3km</t>
+          <t>pops_density_in_areas</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>population_store_ratio_3km</t>
+          <t>pops_and_shops_ratio_in_areas</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -710,12 +710,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>population_density_3km</t>
+          <t>pops_density_in_areas</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>population_metric_sum_3km</t>
+          <t>pops_metric_sum_in_areas</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -728,12 +728,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>population_density_3km</t>
+          <t>pops_density_in_areas</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>population_metric_avg_3km</t>
+          <t>pops_metric_avg_in_areas</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -746,12 +746,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>population_density_3km</t>
+          <t>pops_density_in_areas</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>population_uniformity_3km</t>
+          <t>pops_uniformity_in_areas</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -764,12 +764,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>population_density_3km</t>
+          <t>pops_density_in_areas</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pop_metric_store_ratio_3km</t>
+          <t>pops_metric_sum_and_shops_ratio_in_areas</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -782,12 +782,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>population_store_ratio_3km</t>
+          <t>pops_and_shops_ratio_in_areas</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>population_metric_sum_3km</t>
+          <t>pops_metric_sum_in_areas</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -800,12 +800,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>population_store_ratio_3km</t>
+          <t>pops_and_shops_ratio_in_areas</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>population_metric_avg_3km</t>
+          <t>pops_metric_avg_in_areas</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -818,12 +818,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>population_store_ratio_3km</t>
+          <t>pops_and_shops_ratio_in_areas</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>population_uniformity_3km</t>
+          <t>pops_uniformity_in_areas</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -836,12 +836,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>population_store_ratio_3km</t>
+          <t>pops_and_shops_ratio_in_areas</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pop_metric_store_ratio_3km</t>
+          <t>pops_metric_sum_and_shops_ratio_in_areas</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -854,12 +854,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>population_metric_sum_3km</t>
+          <t>pops_metric_sum_in_areas</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>population_metric_avg_3km</t>
+          <t>pops_metric_avg_in_areas</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -872,12 +872,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>population_metric_sum_3km</t>
+          <t>pops_metric_sum_in_areas</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>population_uniformity_3km</t>
+          <t>pops_uniformity_in_areas</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -890,12 +890,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>population_metric_sum_3km</t>
+          <t>pops_metric_sum_in_areas</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pop_metric_store_ratio_3km</t>
+          <t>pops_metric_sum_and_shops_ratio_in_areas</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -908,12 +908,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>population_metric_avg_3km</t>
+          <t>pops_metric_avg_in_areas</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>population_uniformity_3km</t>
+          <t>pops_uniformity_in_areas</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -926,12 +926,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>population_metric_avg_3km</t>
+          <t>pops_metric_avg_in_areas</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pop_metric_store_ratio_3km</t>
+          <t>pops_metric_sum_and_shops_ratio_in_areas</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -944,12 +944,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>population_uniformity_3km</t>
+          <t>pops_uniformity_in_areas</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pop_metric_store_ratio_3km</t>
+          <t>pops_metric_sum_and_shops_ratio_in_areas</t>
         </is>
       </c>
       <c r="C29" t="n">
